--- a/university/wednesday_09_05/Gantt_chart.xlsx
+++ b/university/wednesday_09_05/Gantt_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">PAM3 – Mobile Hardware Sampler</t>
   </si>
@@ -93,7 +93,16 @@
     <t xml:space="preserve">WP 09 Audio (Stage 2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Buffer Time</t>
+  </si>
+  <si>
     <t xml:space="preserve">WP 10 Velocity Sensitive Pads (Stage 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP 11 Final Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP 12 Documentation</t>
   </si>
   <si>
     <t xml:space="preserve">EINFACHES GANTT-DIAGRAMM von Vertex42.com</t>
@@ -331,7 +340,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,13 +404,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B5"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FAF46"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFCD5B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -579,7 +618,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,51 +883,135 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="12" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="15" fillId="12" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="14" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="15" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="16" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="17" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,10 +1280,10 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FFC4BD97"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB9CDE5"/>
       <rgbColor rgb="FF000080"/>
@@ -1174,7 +1297,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD7E4BD"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF8EB4E3"/>
       <rgbColor rgb="FFE6B9B8"/>
       <rgbColor rgb="FFCCC1DA"/>
@@ -1183,12 +1306,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF8064A2"/>
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1251,8 +1374,10 @@
   </sheetPr>
   <dimension ref="A1:FR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="0" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3568,7 +3693,7 @@
         <v>44683</v>
       </c>
       <c r="E11" s="45" t="n">
-        <v>44703</v>
+        <v>44710</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -3744,7 +3869,7 @@
         <v>44697</v>
       </c>
       <c r="E12" s="50" t="n">
-        <v>44710</v>
+        <v>44724</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -4096,15 +4221,15 @@
       <c r="B14" s="57"/>
       <c r="C14" s="58"/>
       <c r="D14" s="59" t="n">
-        <v>44704</v>
+        <v>44711</v>
       </c>
       <c r="E14" s="60" t="n">
-        <v>44717</v>
+        <v>44731</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -4275,15 +4400,15 @@
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="E15" s="65" t="n">
-        <v>44715</v>
+        <v>44710</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -4448,21 +4573,21 @@
       <c r="FL15" s="23"/>
     </row>
     <row r="16" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34" t="n">
-        <v>44704</v>
-      </c>
-      <c r="E16" s="35" t="n">
-        <v>44804</v>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E16" s="70" t="n">
+        <v>44766</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -4590,20 +4715,22 @@
       <c r="EA16" s="23"/>
       <c r="EB16" s="23"/>
       <c r="EC16" s="23"/>
-      <c r="ED16" s="23"/>
-      <c r="EE16" s="23"/>
-      <c r="EF16" s="23"/>
-      <c r="EG16" s="23"/>
-      <c r="EH16" s="23"/>
-      <c r="EI16" s="23"/>
-      <c r="EJ16" s="23"/>
-      <c r="EK16" s="23"/>
-      <c r="EL16" s="23"/>
-      <c r="EM16" s="23"/>
-      <c r="EN16" s="23"/>
-      <c r="EO16" s="23"/>
-      <c r="EP16" s="23"/>
-      <c r="EQ16" s="23"/>
+      <c r="ED16" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="EE16" s="71"/>
+      <c r="EF16" s="71"/>
+      <c r="EG16" s="71"/>
+      <c r="EH16" s="71"/>
+      <c r="EI16" s="71"/>
+      <c r="EJ16" s="71"/>
+      <c r="EK16" s="71"/>
+      <c r="EL16" s="71"/>
+      <c r="EM16" s="71"/>
+      <c r="EN16" s="71"/>
+      <c r="EO16" s="71"/>
+      <c r="EP16" s="71"/>
+      <c r="EQ16" s="71"/>
       <c r="ER16" s="23"/>
       <c r="ES16" s="23"/>
       <c r="ET16" s="23"/>
@@ -4627,21 +4754,21 @@
       <c r="FL16" s="23"/>
     </row>
     <row r="17" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34" t="n">
+      <c r="A17" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75" t="n">
         <v>44760</v>
       </c>
-      <c r="E17" s="35" t="n">
-        <v>44804</v>
+      <c r="E17" s="76" t="n">
+        <v>44766</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -4769,20 +4896,22 @@
       <c r="EA17" s="23"/>
       <c r="EB17" s="23"/>
       <c r="EC17" s="23"/>
-      <c r="ED17" s="23"/>
-      <c r="EE17" s="23"/>
-      <c r="EF17" s="23"/>
-      <c r="EG17" s="23"/>
-      <c r="EH17" s="23"/>
-      <c r="EI17" s="23"/>
-      <c r="EJ17" s="23"/>
-      <c r="EK17" s="23"/>
-      <c r="EL17" s="23"/>
-      <c r="EM17" s="23"/>
-      <c r="EN17" s="23"/>
-      <c r="EO17" s="23"/>
-      <c r="EP17" s="23"/>
-      <c r="EQ17" s="23"/>
+      <c r="ED17" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="EE17" s="71"/>
+      <c r="EF17" s="71"/>
+      <c r="EG17" s="71"/>
+      <c r="EH17" s="71"/>
+      <c r="EI17" s="71"/>
+      <c r="EJ17" s="71"/>
+      <c r="EK17" s="71"/>
+      <c r="EL17" s="71"/>
+      <c r="EM17" s="71"/>
+      <c r="EN17" s="71"/>
+      <c r="EO17" s="71"/>
+      <c r="EP17" s="71"/>
+      <c r="EQ17" s="71"/>
       <c r="ER17" s="23"/>
       <c r="ES17" s="23"/>
       <c r="ET17" s="23"/>
@@ -4805,16 +4934,22 @@
       <c r="FK17" s="23"/>
       <c r="FL17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+    <row r="18" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80" t="n">
+        <v>44781</v>
+      </c>
+      <c r="E18" s="81" t="n">
+        <v>44794</v>
+      </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -4970,30 +5105,32 @@
       <c r="FC18" s="23"/>
       <c r="FD18" s="23"/>
       <c r="FE18" s="23"/>
-      <c r="FF18" s="23"/>
-      <c r="FG18" s="23"/>
-      <c r="FH18" s="23"/>
-      <c r="FI18" s="23"/>
-      <c r="FJ18" s="23"/>
-      <c r="FK18" s="23"/>
-      <c r="FL18" s="23"/>
-      <c r="FM18" s="30"/>
-      <c r="FN18" s="30"/>
-      <c r="FO18" s="30"/>
-      <c r="FP18" s="30"/>
-      <c r="FQ18" s="30"/>
-      <c r="FR18" s="30"/>
+      <c r="FF18" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="FG18" s="71"/>
+      <c r="FH18" s="71"/>
+      <c r="FI18" s="71"/>
+      <c r="FJ18" s="71"/>
+      <c r="FK18" s="71"/>
+      <c r="FL18" s="71"/>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+    <row r="19" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85" t="n">
+        <v>44641</v>
+      </c>
+      <c r="E19" s="86" t="n">
+        <v>44780</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="29" t="str">
+      <c r="G19" s="29" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>140</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -5156,19 +5293,13 @@
       <c r="FJ19" s="23"/>
       <c r="FK19" s="23"/>
       <c r="FL19" s="23"/>
-      <c r="FM19" s="30"/>
-      <c r="FN19" s="30"/>
-      <c r="FO19" s="30"/>
-      <c r="FP19" s="30"/>
-      <c r="FQ19" s="30"/>
-      <c r="FR19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="23"/>
@@ -5340,11 +5471,11 @@
       <c r="FR20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -5519,11 +5650,11 @@
       <c r="FR21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -5692,11 +5823,11 @@
       <c r="FL22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -5865,11 +5996,11 @@
       <c r="FL23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -6038,11 +6169,11 @@
       <c r="FL24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -6211,11 +6342,11 @@
       <c r="FL25" s="23"/>
     </row>
     <row r="26" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -6384,11 +6515,11 @@
       <c r="FL26" s="23"/>
     </row>
     <row r="27" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="23"/>
@@ -6554,11 +6685,11 @@
       <c r="FL27" s="23"/>
     </row>
     <row r="28" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="23"/>
@@ -6724,11 +6855,11 @@
       <c r="FL28" s="23"/>
     </row>
     <row r="29" s="30" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="23"/>
@@ -6894,11 +7025,11 @@
       <c r="FL29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -7067,11 +7198,11 @@
       <c r="FL30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -7240,11 +7371,11 @@
       <c r="FL31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="74"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -7413,11 +7544,11 @@
       <c r="FL32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="74"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="23"/>
@@ -7583,11 +7714,11 @@
       <c r="FL33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="23"/>
@@ -7753,11 +7884,11 @@
       <c r="FL34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="75"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -7955,7 +8086,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
@@ -7982,8 +8113,11 @@
     <mergeCell ref="ER4:EX4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
+    <mergeCell ref="ED16:EQ16"/>
+    <mergeCell ref="ED17:EQ17"/>
+    <mergeCell ref="FF18:FL18"/>
   </mergeCells>
-  <conditionalFormatting sqref="C18:C34">
+  <conditionalFormatting sqref="C20:C34">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -7992,17 +8126,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F810B833-43DE-4338-9ED4-50EFEB9A216A}</x14:id>
+          <x14:id>{FF50E524-F1E2-4F1D-92DD-47283787BAFD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:FL17">
+  <conditionalFormatting sqref="H5:FL19">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:FL17">
+  <conditionalFormatting sqref="H7:FL19">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -8036,12 +8170,12 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:FL20">
+  <conditionalFormatting sqref="H20:FL20">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:FL20">
+  <conditionalFormatting sqref="H20:FL20">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -8084,7 +8218,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ACDEE80-5DEC-43E5-B76B-6AC1688545B0}</x14:id>
+          <x14:id>{77622ADB-E976-4D57-8A3A-FA53AC87893F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8098,7 +8232,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88ACF35E-4E11-4050-86BF-6E82C0FE8970}</x14:id>
+          <x14:id>{A6C296A7-7A4D-473F-AF29-9C9357B31ED0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8112,7 +8246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{394A1942-D840-421C-9CFB-CD33AEE6CA6E}</x14:id>
+          <x14:id>{8C9DCDD9-649D-40B2-B61F-A315F5A4A630}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8126,7 +8260,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30B41198-5213-48B9-8EF5-8882FEA84BD7}</x14:id>
+          <x14:id>{F2E4576D-A5B3-4654-ACCB-EDE044428C4B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8140,7 +8274,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41C67121-6F8B-4348-9CE3-A8DE5781423D}</x14:id>
+          <x14:id>{B12D9650-29A3-46A1-A42A-D8467BB08913}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="dataBar" priority="26">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFBFBFBF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C6D63E2-AE23-4C28-AEB0-7779F88FD6CF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="dataBar" priority="27">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFBFBFBF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E096CF7A-7E96-4012-AED5-60C9E57333E4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8167,7 +8329,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F810B833-43DE-4338-9ED4-50EFEB9A216A}">
+          <x14:cfRule type="dataBar" id="{FF50E524-F1E2-4F1D-92DD-47283787BAFD}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8179,10 +8341,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18:C34</xm:sqref>
+          <xm:sqref>C20:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ACDEE80-5DEC-43E5-B76B-6AC1688545B0}">
+          <x14:cfRule type="dataBar" id="{77622ADB-E976-4D57-8A3A-FA53AC87893F}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8197,7 +8359,7 @@
           <xm:sqref>C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88ACF35E-4E11-4050-86BF-6E82C0FE8970}">
+          <x14:cfRule type="dataBar" id="{A6C296A7-7A4D-473F-AF29-9C9357B31ED0}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8212,7 +8374,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{394A1942-D840-421C-9CFB-CD33AEE6CA6E}">
+          <x14:cfRule type="dataBar" id="{8C9DCDD9-649D-40B2-B61F-A315F5A4A630}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8227,7 +8389,7 @@
           <xm:sqref>C7:C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30B41198-5213-48B9-8EF5-8882FEA84BD7}">
+          <x14:cfRule type="dataBar" id="{F2E4576D-A5B3-4654-ACCB-EDE044428C4B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8242,7 +8404,7 @@
           <xm:sqref>C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41C67121-6F8B-4348-9CE3-A8DE5781423D}">
+          <x14:cfRule type="dataBar" id="{B12D9650-29A3-46A1-A42A-D8467BB08913}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8255,6 +8417,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C6D63E2-AE23-4C28-AEB0-7779F88FD6CF}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E096CF7A-7E96-4012-AED5-60C9E57333E4}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8269,92 +8461,92 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="78" width="104.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="104.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79"/>
+    <row r="2" s="101" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="100"/>
     </row>
-    <row r="3" s="83" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
+    <row r="3" s="104" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="103"/>
     </row>
-    <row r="4" s="85" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="s">
-        <v>22</v>
+    <row r="4" s="106" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="105" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="74.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="s">
-        <v>23</v>
+      <c r="A5" s="107" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="s">
-        <v>24</v>
+      <c r="A6" s="105" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" s="78" customFormat="true" ht="204.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="87" t="s">
-        <v>25</v>
+    <row r="7" s="99" customFormat="true" ht="204.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="108" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" s="85" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84" t="s">
-        <v>26</v>
+    <row r="8" s="106" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="105" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
-        <v>27</v>
+      <c r="A9" s="107" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" s="78" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
-        <v>28</v>
+    <row r="10" s="99" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="109" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" s="85" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="84" t="s">
-        <v>29</v>
+    <row r="11" s="106" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="105" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="86" t="s">
-        <v>30</v>
+      <c r="A12" s="107" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="13" s="78" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
-        <v>31</v>
+    <row r="13" s="99" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="109" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="14" s="85" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84" t="s">
-        <v>32</v>
+    <row r="14" s="106" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="105" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="86" t="s">
-        <v>33</v>
+      <c r="A15" s="107" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="86" t="s">
-        <v>34</v>
+      <c r="A16" s="107" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
